--- a/Szerep_Funkcio.xlsx
+++ b/Szerep_Funkcio.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t xml:space="preserve">Bejelentkezés</t>
   </si>
@@ -60,11 +60,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="18">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,51 +83,85 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Mangal"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="Mangal"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="Mangal"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="Mangal"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Mangal"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -144,6 +179,7 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -244,41 +280,73 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,7 +450,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -579,9 +647,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
